--- a/output/below_50/tRNA-Val-CAC-1-5.xlsx
+++ b/output/below_50/tRNA-Val-CAC-1-5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="80">
   <si>
     <t>chr5</t>
   </si>
@@ -252,102 +252,6 @@
   </si>
   <si>
     <t>55</t>
-  </si>
-  <si>
-    <t>180649515</t>
-  </si>
-  <si>
-    <t>180649538</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>180649535</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GAGACGGCCGGGATAGCTCT</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 50%, Moreno-Mateos: 80%</t>
-  </si>
-  <si>
-    <t>3.96132E+11</t>
-  </si>
-  <si>
-    <t>180649541</t>
-  </si>
-  <si>
-    <t>180649564</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>180649561</t>
-  </si>
-  <si>
-    <t>GCGCCCTTGTAGGACAGGCC</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 7, Doench 2016: 50%, Moreno-Mateos: 76%</t>
-  </si>
-  <si>
-    <t>2.2379E+11</t>
-  </si>
-  <si>
-    <t>180649783</t>
-  </si>
-  <si>
-    <t>180649806</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>180649803</t>
-  </si>
-  <si>
-    <t>AAGTTCTGCAGGCCCAGCCC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 38%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>1.52232E+11</t>
   </si>
 </sst>
 </file>
@@ -392,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -993,58 +897,58 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1052,58 +956,58 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1111,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1123,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1138,25 +1042,25 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
         <v>15</v>
@@ -1170,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1197,25 +1101,25 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
@@ -1229,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1256,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
@@ -1265,16 +1169,16 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
         <v>15</v>
@@ -1288,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1300,10 +1204,10 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1315,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
         <v>9</v>
@@ -1324,16 +1228,16 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
         <v>15</v>
@@ -1347,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1374,25 +1278,25 @@
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="R17" t="s">
         <v>15</v>
@@ -1406,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1418,10 +1322,10 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -1433,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s">
         <v>9</v>
@@ -1442,16 +1346,16 @@
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="R18" t="s">
         <v>15</v>
@@ -1465,22 +1369,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -1492,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
         <v>58</v>
@@ -1501,16 +1405,16 @@
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -1524,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -1551,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
         <v>9</v>
@@ -1560,13 +1464,13 @@
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
@@ -1576,301 +1480,6 @@
       </c>
       <c r="S20" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>97</v>
-      </c>
-      <c r="R24" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" t="s">
-        <v>106</v>
-      </c>
-      <c r="O25" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>109</v>
-      </c>
-      <c r="R25" t="s">
-        <v>110</v>
-      </c>
-      <c r="S25" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
